--- a/biology/Botanique/Kunzea_ericoides/Kunzea_ericoides.xlsx
+++ b/biology/Botanique/Kunzea_ericoides/Kunzea_ericoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kunzea ericoides est un arbre ou un arbuste de la famille  des Myrtaceae poussant en Australie (Australie-Méridionale, Victoria, Nouvelle-Galles du Sud et Queensland) et Nouvelle-Zélande. Jusqu'en 1983 il était classé dans le genre Leptospermum.
 Il est particulièrement courant dans les broussailles côtières et colonise les terres après un incendie ou plus utilisées pour l'agriculture. Il peut pousser jusqu'à 2 000 mètres d'altitude. Avec ses petites fleurs blanches abondantes, il peut faire devenir une colline toute blanche, lui donnant presque l'apparence d'une couverture neigeuse. Son bois est très dur et ne se conserve pas dans le sol. Il est cependant utilisé pour faire des pieux de quai et des manches d'outils. Il est particulièrement populaire comme bois de chauffage.
@@ -513,9 +525,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (16 août 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (16 août 2011) :
 non-classé Kunzea ericoides var. ericoides
 non-classé Kunzea ericoides var. linearis
 non-classé Kunzea ericoides var. microflora
